--- a/module2/New folder/Câu hỏi audit module 2 (1).xlsx
+++ b/module2/New folder/Câu hỏi audit module 2 (1).xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\Dell5590\Desktop\Module_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A0622I1\module2\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593B5ABA-EDD0-421E-AE52-EBBFFF6A9BF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0632728-0781-4F4E-846D-08C5703A9542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF54082F-F906-4D53-832D-B9DADDD63EE4}"/>
+    <workbookView xWindow="6855" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{FF54082F-F906-4D53-832D-B9DADDD63EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -630,19 +621,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C4EFFE-BBDF-40E0-9D05-F4C9A58CBB04}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,15 +642,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="e">
+        <f>-Java</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -666,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -674,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -682,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -690,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -698,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -706,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -714,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -722,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -730,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -738,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -746,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -754,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -762,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
